--- a/Submit/Team_10_Week_11_181121_The_Veil/Feedback/Game Feedback.xlsx
+++ b/Submit/Team_10_Week_11_181121_The_Veil/Feedback/Game Feedback.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>No.</t>
   </si>
@@ -242,7 +242,25 @@
     <t>Game title and menu looks too ugly.</t>
   </si>
   <si>
-    <t>Found jumping over the platform bridge at the end difficult. Liked the art but found some of the character movement too fast. Wasn't sold on the dialogue, and had issue with the double jump movement. Overall, liked the concept of the game (Nathan)</t>
+    <t>Double jump requires fine touch, can't predict where Raven will land with the camera being so sharp and zoomed in. (Cian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim for teaching  the player new mechanics 3 times in 3 different ways. (Cian) </t>
+  </si>
+  <si>
+    <t>Really likes the mechanic, but feels like its dropped on the player, and this level is beyond tutorial level (Cian)</t>
+  </si>
+  <si>
+    <t>Needs a better sense of correct progress and direction (Cian)</t>
+  </si>
+  <si>
+    <t>Too much text, feels in general players ignore text (Cian)</t>
+  </si>
+  <si>
+    <t>The Lever needs to stand out better against the background (Martin)</t>
+  </si>
+  <si>
+    <t>Remaining time just making fixes and minor adjustments to do with sign-posting, be aware of what changes you would make, hypothetically and note them down,  but this is outwith the scope of the deadline</t>
   </si>
 </sst>
 </file>
@@ -785,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,13 +1556,46 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="6">
-        <v>43420</v>
-      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F8">
